--- a/data/trans_orig/P6602-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>126042</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108377</v>
+        <v>108002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145442</v>
+        <v>145962</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3281063884430833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2821227880996353</v>
+        <v>0.2811462275602115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3786066210672663</v>
+        <v>0.3799604464116185</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -765,19 +765,19 @@
         <v>95940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83485</v>
+        <v>83794</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107998</v>
+        <v>108045</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6161506645623995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.536161102250329</v>
+        <v>0.5381477746602684</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.693587065322479</v>
+        <v>0.6938888207938431</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>217</v>
@@ -786,19 +786,19 @@
         <v>221982</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>199850</v>
+        <v>198643</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>245049</v>
+        <v>245339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4111858902849115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3701901501183844</v>
+        <v>0.3679541005604525</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4539124150030462</v>
+        <v>0.4544508857593986</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>81383</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66403</v>
+        <v>65003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99667</v>
+        <v>97736</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2118528018701197</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1728578363777342</v>
+        <v>0.1692128673192073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2594491313584406</v>
+        <v>0.2544208785236751</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -836,19 +836,19 @@
         <v>33698</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23243</v>
+        <v>23692</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45808</v>
+        <v>45360</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2164160198271238</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1492713437020619</v>
+        <v>0.1521558236485635</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2941913795791808</v>
+        <v>0.2913097365900406</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>107</v>
@@ -857,19 +857,19 @@
         <v>115081</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>97777</v>
+        <v>97670</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>135368</v>
+        <v>134731</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2131689532610487</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1811151993752475</v>
+        <v>0.1809176946776807</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2507464476240772</v>
+        <v>0.2495677109181669</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>147074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125535</v>
+        <v>126984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>165806</v>
+        <v>165060</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3828550270172438</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3267862731072481</v>
+        <v>0.3305592892369097</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.431616652489647</v>
+        <v>0.4296761697886041</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -907,19 +907,19 @@
         <v>18778</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12038</v>
+        <v>12328</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27817</v>
+        <v>27919</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1205944347621601</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07730839981711794</v>
+        <v>0.07917645450792085</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1786485081770488</v>
+        <v>0.1793029327671779</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>159</v>
@@ -928,19 +928,19 @@
         <v>165851</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>143057</v>
+        <v>142052</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>186279</v>
+        <v>187509</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3072122138676787</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2649887399190389</v>
+        <v>0.263127994133957</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3450518773377537</v>
+        <v>0.3473300210775561</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>29651</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19735</v>
+        <v>19667</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41123</v>
+        <v>41208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07718578266955324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05137373254997805</v>
+        <v>0.05119548576678466</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1070482468551858</v>
+        <v>0.1072714901191205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -978,19 +978,19 @@
         <v>7293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3113</v>
+        <v>3140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14352</v>
+        <v>13833</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04683888084831657</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01999353949029639</v>
+        <v>0.02016722613943306</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09217249104419871</v>
+        <v>0.08883598634686486</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -999,19 +999,19 @@
         <v>36944</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26527</v>
+        <v>25988</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50020</v>
+        <v>50415</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06843294258636112</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04913663041382739</v>
+        <v>0.04813867081512187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09265291257124555</v>
+        <v>0.0933863460002292</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>236552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>213033</v>
+        <v>212445</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>260319</v>
+        <v>264622</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4239898498693141</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3818338086588751</v>
+        <v>0.3807804640110238</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.466587767705877</v>
+        <v>0.4743012719242249</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>178</v>
@@ -1124,19 +1124,19 @@
         <v>190451</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>173968</v>
+        <v>173844</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>205760</v>
+        <v>205674</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7138915008246395</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6521070193325182</v>
+        <v>0.6516392315337155</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7712763568046166</v>
+        <v>0.7709525908928245</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>391</v>
@@ -1145,19 +1145,19 @@
         <v>427004</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>397967</v>
+        <v>397413</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>459349</v>
+        <v>458687</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5177691415908448</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4825599837707822</v>
+        <v>0.4818880817878773</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5569895096654462</v>
+        <v>0.5561869288462782</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>126628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108151</v>
+        <v>106381</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149114</v>
+        <v>148666</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2269653223982201</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1938460428160395</v>
+        <v>0.1906735860607713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2672678294749623</v>
+        <v>0.2664648020547075</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1195,19 +1195,19 @@
         <v>50835</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38635</v>
+        <v>38154</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66878</v>
+        <v>64900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1905501221075083</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1448220836346526</v>
+        <v>0.1430177908900278</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2506860575519325</v>
+        <v>0.2432712066670848</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -1216,19 +1216,19 @@
         <v>177463</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>155416</v>
+        <v>153048</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205174</v>
+        <v>202413</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2151854940326104</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1884522394498375</v>
+        <v>0.1855806585577113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2487865179520216</v>
+        <v>0.2454385274164816</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>135818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>115053</v>
+        <v>114661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>158200</v>
+        <v>155624</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2434366239270428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2062181217972837</v>
+        <v>0.2055143983368851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2835540147843922</v>
+        <v>0.2789359890512356</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1266,19 +1266,19 @@
         <v>14238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7690</v>
+        <v>7948</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23176</v>
+        <v>23983</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05337115643194236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02882623536987267</v>
+        <v>0.02979138761528054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08687440473743033</v>
+        <v>0.08989868735074345</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>139</v>
@@ -1287,19 +1287,19 @@
         <v>150056</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>126243</v>
+        <v>129019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>172611</v>
+        <v>174550</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1819529971050662</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1530781353900062</v>
+        <v>0.1564438939565839</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2093021594521383</v>
+        <v>0.2116535208856487</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>58921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45175</v>
+        <v>43036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74123</v>
+        <v>75111</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1056082038054231</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08096955938932132</v>
+        <v>0.07713600431944527</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1328564525780453</v>
+        <v>0.1346265360867857</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1337,19 +1337,19 @@
         <v>11255</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6091</v>
+        <v>5959</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19155</v>
+        <v>19783</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04218722063590991</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02283023351499769</v>
+        <v>0.0223373731394517</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0718004378451074</v>
+        <v>0.0741541772019676</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>64</v>
@@ -1358,19 +1358,19 @@
         <v>70176</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55132</v>
+        <v>54952</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>87850</v>
+        <v>87592</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08509236727147866</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.066850579635685</v>
+        <v>0.06663282357113751</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1065235357447125</v>
+        <v>0.1062109275801262</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>181417</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>160391</v>
+        <v>160345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>202770</v>
+        <v>203657</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4470297120792129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3952212523077451</v>
+        <v>0.3951060440419165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4996452624360327</v>
+        <v>0.5018324319877475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>159</v>
@@ -1483,19 +1483,19 @@
         <v>158171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>144987</v>
+        <v>143892</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>171240</v>
+        <v>170053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7427744162564267</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6808637106760349</v>
+        <v>0.6757201536397244</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.804146068516957</v>
+        <v>0.7985754683684454</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>322</v>
@@ -1504,19 +1504,19 @@
         <v>339588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>313107</v>
+        <v>315627</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>364948</v>
+        <v>367281</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5488079669837702</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5060119105894781</v>
+        <v>0.5100849103251064</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5897937261903735</v>
+        <v>0.5935639497061016</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>93433</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>77027</v>
+        <v>77024</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>111443</v>
+        <v>111560</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2302286161030648</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1898028469115006</v>
+        <v>0.1897955440831139</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2746081467213247</v>
+        <v>0.2748943956757906</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>36</v>
@@ -1554,19 +1554,19 @@
         <v>36903</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>26445</v>
+        <v>26701</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49496</v>
+        <v>48429</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1732974324972609</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1241858525331203</v>
+        <v>0.1253890172821542</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2324335009498729</v>
+        <v>0.2274222913236356</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>124</v>
@@ -1575,19 +1575,19 @@
         <v>130336</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>109963</v>
+        <v>109789</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>153138</v>
+        <v>151719</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.210636189137483</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1777111284657046</v>
+        <v>0.177430346278818</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2474867743577214</v>
+        <v>0.2451925179073125</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>94499</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78296</v>
+        <v>77853</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115309</v>
+        <v>113640</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2328547494713195</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1929297924930805</v>
+        <v>0.1918385182535009</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2841344431213311</v>
+        <v>0.2800208831898724</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1625,19 +1625,19 @@
         <v>12645</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6845</v>
+        <v>7058</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21328</v>
+        <v>21899</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05937909705936736</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0321426734348363</v>
+        <v>0.03314368927210105</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1001555178198232</v>
+        <v>0.1028388959088695</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>101</v>
@@ -1646,19 +1646,19 @@
         <v>107143</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86132</v>
+        <v>89787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>126639</v>
+        <v>129734</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1731544440337678</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1391973144707176</v>
+        <v>0.1451043038841683</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2046616697929857</v>
+        <v>0.2096630521144991</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>36479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25899</v>
+        <v>27163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49516</v>
+        <v>51477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08988692234640279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06381754179407337</v>
+        <v>0.06693214178321114</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1220120720139026</v>
+        <v>0.1268452327642346</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1696,19 +1696,19 @@
         <v>5228</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1799</v>
+        <v>2053</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11975</v>
+        <v>11958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02454905418694497</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008449357722433989</v>
+        <v>0.009639186919531877</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05623636731539242</v>
+        <v>0.05615346819516894</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1717,19 +1717,19 @@
         <v>41706</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29512</v>
+        <v>30922</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55306</v>
+        <v>55694</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06740139984497903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04769408031439883</v>
+        <v>0.04997236875719946</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08937937646495527</v>
+        <v>0.09000730610018556</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>294532</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>272301</v>
+        <v>273388</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>316956</v>
+        <v>320143</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5328463703536449</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.492628652618156</v>
+        <v>0.4945939852799436</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5734141166958574</v>
+        <v>0.5791805195839103</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>283</v>
@@ -1842,19 +1842,19 @@
         <v>299466</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>281969</v>
+        <v>282391</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>315908</v>
+        <v>314245</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7734513102428203</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7282591940096799</v>
+        <v>0.7293502427048723</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8159168463116951</v>
+        <v>0.8116206262643139</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>592</v>
@@ -1863,19 +1863,19 @@
         <v>593998</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>565483</v>
+        <v>563507</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>621642</v>
+        <v>625169</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6319573837957164</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6016201970606804</v>
+        <v>0.5995175734559884</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6613682096947411</v>
+        <v>0.6651196047841313</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>107061</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89829</v>
+        <v>88380</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126554</v>
+        <v>124695</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1936863599110165</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1625126673544622</v>
+        <v>0.1598900856263503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.228953251410612</v>
+        <v>0.2255886792411248</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -1913,19 +1913,19 @@
         <v>50140</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37162</v>
+        <v>38257</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62695</v>
+        <v>64828</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1295009427610463</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09597975494519176</v>
+        <v>0.09880925684520504</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1619263563124563</v>
+        <v>0.1674358556063148</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>156</v>
@@ -1934,19 +1934,19 @@
         <v>157201</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>134721</v>
+        <v>134330</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>178824</v>
+        <v>181242</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1672468290149933</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1433299793706638</v>
+        <v>0.1429141915515943</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1902512586551933</v>
+        <v>0.1928240392051883</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>115656</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>98160</v>
+        <v>96324</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>135807</v>
+        <v>135127</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2092373767541242</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1775839912186682</v>
+        <v>0.1742618197073308</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2456919262863971</v>
+        <v>0.2444619764521867</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -1984,19 +1984,19 @@
         <v>22640</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14796</v>
+        <v>14609</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>34291</v>
+        <v>33545</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05847389695631357</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03821343230357595</v>
+        <v>0.03773154271161473</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08856580030876912</v>
+        <v>0.08663810737261959</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>136</v>
@@ -2005,19 +2005,19 @@
         <v>138296</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>116981</v>
+        <v>117298</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>160429</v>
+        <v>160913</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1471342408846078</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1244570625769147</v>
+        <v>0.1247935705940966</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1706808716617464</v>
+        <v>0.1711962456878747</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>35503</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26332</v>
+        <v>25781</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48673</v>
+        <v>47982</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06422989298121438</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04763761730459776</v>
+        <v>0.04664188414822239</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08805559042233353</v>
+        <v>0.08680519635754923</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2055,19 +2055,19 @@
         <v>14935</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8198</v>
+        <v>8109</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24542</v>
+        <v>23711</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03857385003981977</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02117233520667466</v>
+        <v>0.0209433356686776</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06338653512335833</v>
+        <v>0.06124085920425616</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -2076,19 +2076,19 @@
         <v>50438</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38793</v>
+        <v>38047</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64654</v>
+        <v>65430</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05366154630468248</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0412719308128625</v>
+        <v>0.04047808672497811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06878548326851815</v>
+        <v>0.06961099455919134</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>838543</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>793718</v>
+        <v>795827</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>883581</v>
+        <v>883686</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4411878165102221</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4176034967046004</v>
+        <v>0.4187130965317643</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4648838642809752</v>
+        <v>0.4649388292464644</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>715</v>
@@ -2201,19 +2201,19 @@
         <v>744029</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>711702</v>
+        <v>712872</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>771085</v>
+        <v>771462</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.727573846042354</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6959624015702502</v>
+        <v>0.6971063426906655</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7540319005317628</v>
+        <v>0.7544001275022898</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1522</v>
@@ -2222,19 +2222,19 @@
         <v>1582572</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1532906</v>
+        <v>1527540</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1640842</v>
+        <v>1634593</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5413713283032547</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5243814725230802</v>
+        <v>0.5225457790570832</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5613045294594895</v>
+        <v>0.5591669753483322</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>408505</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>376199</v>
+        <v>373456</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>448312</v>
+        <v>447869</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2149293502860883</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1979319695391413</v>
+        <v>0.1964885432060179</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2358732138726078</v>
+        <v>0.2356400656326232</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>159</v>
@@ -2272,19 +2272,19 @@
         <v>171576</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>151117</v>
+        <v>145697</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>201178</v>
+        <v>198134</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1677816146390502</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1477747494355255</v>
+        <v>0.1424748976333394</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1967288971005069</v>
+        <v>0.1937525811927149</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>547</v>
@@ -2293,19 +2293,19 @@
         <v>580081</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>538982</v>
+        <v>536466</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>628003</v>
+        <v>621474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1984361374784437</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1843765728371798</v>
+        <v>0.1835160174117438</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2148291665919653</v>
+        <v>0.2125959249244799</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>493047</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>456587</v>
+        <v>453148</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>534835</v>
+        <v>531920</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2594097996390545</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2402270793242236</v>
+        <v>0.2384174015176482</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2813960118041842</v>
+        <v>0.2798624677080785</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -2343,19 +2343,19 @@
         <v>68301</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52717</v>
+        <v>53231</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>85471</v>
+        <v>85914</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06679002926427934</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05155147696293647</v>
+        <v>0.05205361874376292</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08358040212619056</v>
+        <v>0.08401412404413967</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>535</v>
@@ -2364,19 +2364,19 @@
         <v>561348</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>520143</v>
+        <v>518389</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>608364</v>
+        <v>606374</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1920275845622977</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1779321866721858</v>
+        <v>0.1773323296040709</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2081109786084762</v>
+        <v>0.2074303912347275</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>160554</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>135685</v>
+        <v>136776</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>186669</v>
+        <v>184795</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08447303356463515</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07138856173406545</v>
+        <v>0.07196286421399885</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09821331634383811</v>
+        <v>0.09722711698736454</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>37</v>
@@ -2414,19 +2414,19 @@
         <v>38711</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>27602</v>
+        <v>27721</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>53259</v>
+        <v>52846</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03785451005431648</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02699161600203293</v>
+        <v>0.0271075418337685</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0520811652577659</v>
+        <v>0.05167756899482471</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>194</v>
@@ -2435,19 +2435,19 @@
         <v>199264</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>172244</v>
+        <v>172296</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>228242</v>
+        <v>226715</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0681649496560038</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05892188571769552</v>
+        <v>0.05893974463720841</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07807789422668875</v>
+        <v>0.07755549918792019</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>75213</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60741</v>
+        <v>61089</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89951</v>
+        <v>90925</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.280662038551823</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2266573469675735</v>
+        <v>0.2279579667371435</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.335657973612714</v>
+        <v>0.3392926389068248</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -2800,19 +2800,19 @@
         <v>107677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95110</v>
+        <v>94197</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119685</v>
+        <v>119231</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6676580852430737</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5897397095789633</v>
+        <v>0.5840765381497437</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7421151958977915</v>
+        <v>0.7393027830581297</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>173</v>
@@ -2821,19 +2821,19 @@
         <v>182890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>160910</v>
+        <v>163110</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>204606</v>
+        <v>203590</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.426058707770365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3748564330869883</v>
+        <v>0.3799804764314377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4766496438603761</v>
+        <v>0.4742829083958107</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>81035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65967</v>
+        <v>65822</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96359</v>
+        <v>96845</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3023886499286016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2461601311135714</v>
+        <v>0.2456189236911707</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3595695594056518</v>
+        <v>0.3613822975143021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -2871,19 +2871,19 @@
         <v>36909</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27090</v>
+        <v>26770</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48831</v>
+        <v>49568</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.228855144682862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1679752215411973</v>
+        <v>0.1659917207534789</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3027833620373789</v>
+        <v>0.3073532027130897</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -2892,19 +2892,19 @@
         <v>117944</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99768</v>
+        <v>101690</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>138393</v>
+        <v>138242</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.27476168363242</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2324201236337489</v>
+        <v>0.2368969160341727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3224006000363309</v>
+        <v>0.3220474581946</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>64470</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49958</v>
+        <v>49983</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79437</v>
+        <v>79877</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2405736070097884</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1864209093456547</v>
+        <v>0.1865154467043907</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2964250933438186</v>
+        <v>0.2980662208526608</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -2942,19 +2942,19 @@
         <v>12325</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6400</v>
+        <v>6938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21003</v>
+        <v>20397</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07642493555784488</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03968215361889402</v>
+        <v>0.04302268359647012</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1302338595422108</v>
+        <v>0.1264754396720767</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>73</v>
@@ -2963,19 +2963,19 @@
         <v>76795</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62486</v>
+        <v>60348</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>95472</v>
+        <v>93198</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1789019948839869</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1455671945700314</v>
+        <v>0.1405875895423798</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2224108756539265</v>
+        <v>0.2171145596347623</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>47266</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35564</v>
+        <v>34651</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60744</v>
+        <v>60909</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1763757045097869</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1327097553931842</v>
+        <v>0.1293015407560471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2266720275978114</v>
+        <v>0.2272871407619997</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3013,19 +3013,19 @@
         <v>4364</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1117</v>
+        <v>1077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11202</v>
+        <v>9661</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02706183451621947</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006923435846393817</v>
+        <v>0.006677534237462473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06945954939655782</v>
+        <v>0.05990570571044154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -3034,19 +3034,19 @@
         <v>51630</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39194</v>
+        <v>38855</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67764</v>
+        <v>66876</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1202776137132281</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0913067507578547</v>
+        <v>0.09051702886326571</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1578635507035115</v>
+        <v>0.1557940505011169</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>147989</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>128461</v>
+        <v>126912</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>168895</v>
+        <v>170474</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3620990663514947</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3143176051454364</v>
+        <v>0.3105282079428782</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4132508294394228</v>
+        <v>0.4171151106524625</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>154</v>
@@ -3159,19 +3159,19 @@
         <v>169201</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>152802</v>
+        <v>151556</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>185347</v>
+        <v>184867</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6259475669408635</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5652786781099326</v>
+        <v>0.5606721897886066</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6856777942796123</v>
+        <v>0.6839033226418378</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>285</v>
@@ -3180,19 +3180,19 @@
         <v>317190</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>289758</v>
+        <v>291918</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>343041</v>
+        <v>344751</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4671364536657099</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4267366783200325</v>
+        <v>0.4299164517102013</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.505207444863229</v>
+        <v>0.5077254661697451</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>102254</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85650</v>
+        <v>84542</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119932</v>
+        <v>119509</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2501936573054677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2095691487294561</v>
+        <v>0.2068578092772199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.293448349541938</v>
+        <v>0.2924149333391207</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -3230,19 +3230,19 @@
         <v>61184</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48409</v>
+        <v>46787</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77587</v>
+        <v>75913</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2263462542804201</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1790852923388563</v>
+        <v>0.1730853174073262</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2870291029821662</v>
+        <v>0.2808352520823475</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -3251,19 +3251,19 @@
         <v>163438</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>141007</v>
+        <v>138161</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186514</v>
+        <v>185089</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2407000694988859</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2076659295628052</v>
+        <v>0.2034747351556474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.274685777825968</v>
+        <v>0.2725866527401029</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>82769</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65499</v>
+        <v>67059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100156</v>
+        <v>103449</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2025183171288647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1602622119590233</v>
+        <v>0.1640792365800322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2450605488719481</v>
+        <v>0.2531187577406036</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -3301,19 +3301,19 @@
         <v>13456</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7097</v>
+        <v>7314</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21539</v>
+        <v>21922</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04978112891843569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02625341625663777</v>
+        <v>0.0270567901324018</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07968237716259317</v>
+        <v>0.08109724769234296</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>91</v>
@@ -3322,19 +3322,19 @@
         <v>96225</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>79735</v>
+        <v>78963</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>115763</v>
+        <v>114776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1417140481657784</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1174289197133369</v>
+        <v>0.1162912129052906</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1704878688259811</v>
+        <v>0.1690345216760279</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>75686</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60311</v>
+        <v>59920</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>94179</v>
+        <v>93234</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.185188959214173</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1475679422277189</v>
+        <v>0.1466122097966601</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2304368503051502</v>
+        <v>0.2281244125461454</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -3372,19 +3372,19 @@
         <v>26470</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17142</v>
+        <v>17828</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38201</v>
+        <v>40810</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09792504986028075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06341561285567146</v>
+        <v>0.06595406071007755</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1413230559193461</v>
+        <v>0.1509752061755547</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>91</v>
@@ -3393,19 +3393,19 @@
         <v>102157</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>83975</v>
+        <v>83437</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>122183</v>
+        <v>121834</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1504494286696258</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1236733431404126</v>
+        <v>0.1228797562605474</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1799433263875628</v>
+        <v>0.1794291786202462</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>116116</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97436</v>
+        <v>98363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135757</v>
+        <v>133997</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3635680922143781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.305080248771188</v>
+        <v>0.3079834886103058</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4250668609968666</v>
+        <v>0.4195558867371394</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -3518,19 +3518,19 @@
         <v>124204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>107048</v>
+        <v>108154</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137756</v>
+        <v>139045</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.579466301783696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4994246886347271</v>
+        <v>0.5045859095736654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6426939572251574</v>
+        <v>0.6487084986586693</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>214</v>
@@ -3539,19 +3539,19 @@
         <v>240320</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>215234</v>
+        <v>213977</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>265772</v>
+        <v>263345</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4502726293730085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4032717146296623</v>
+        <v>0.4009162879707344</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4979614815238075</v>
+        <v>0.4934147503065809</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>79399</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>64161</v>
+        <v>64371</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>96559</v>
+        <v>98612</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2486039194077596</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2008936495602773</v>
+        <v>0.2015497914696352</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3023339890706415</v>
+        <v>0.3087632424313383</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>48</v>
@@ -3589,19 +3589,19 @@
         <v>54351</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>42508</v>
+        <v>42523</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68728</v>
+        <v>69923</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2535702636607686</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1983199937447124</v>
+        <v>0.1983899810736713</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3206467596955581</v>
+        <v>0.3262231980006953</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>121</v>
@@ -3610,19 +3610,19 @@
         <v>133749</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>113304</v>
+        <v>110435</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>157374</v>
+        <v>155044</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2505983990316831</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2122912877899637</v>
+        <v>0.2069165431188983</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2948627214509154</v>
+        <v>0.2904962261658192</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>80323</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64753</v>
+        <v>63719</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97003</v>
+        <v>97459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2514972618583681</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2027453519206509</v>
+        <v>0.1995104714813434</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3037251197998046</v>
+        <v>0.3051503844703045</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3660,19 +3660,19 @@
         <v>20405</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13502</v>
+        <v>12588</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32485</v>
+        <v>30561</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09519924532947653</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06299474092302201</v>
+        <v>0.05872750849303764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1515554746166374</v>
+        <v>0.1425808650263745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -3681,19 +3681,19 @@
         <v>100728</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83329</v>
+        <v>82249</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122821</v>
+        <v>121020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1887281114842957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1561289192256565</v>
+        <v>0.1541048801321323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2301228958287241</v>
+        <v>0.2267485710002138</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>43541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32098</v>
+        <v>32126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57730</v>
+        <v>59185</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1363307265194941</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1005022727709678</v>
+        <v>0.1005890590554713</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.180756602025408</v>
+        <v>0.1853122177484144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -3731,19 +3731,19 @@
         <v>15382</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8934</v>
+        <v>9148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24163</v>
+        <v>24242</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07176418922605901</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04168100553887254</v>
+        <v>0.04267886228015114</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1127289706865081</v>
+        <v>0.1130984883997205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -3752,19 +3752,19 @@
         <v>58923</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44489</v>
+        <v>45347</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75932</v>
+        <v>75538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1104008601110127</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08335575904001304</v>
+        <v>0.08496395656481995</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1422697839235724</v>
+        <v>0.1415307691088092</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>174763</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>156414</v>
+        <v>154132</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>195238</v>
+        <v>198089</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4204475332441889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3763047655677961</v>
+        <v>0.3708142534786972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.469707034873832</v>
+        <v>0.476565134974976</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>180</v>
@@ -3877,19 +3877,19 @@
         <v>189443</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>171047</v>
+        <v>171142</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>205303</v>
+        <v>206409</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.634300622456991</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5727050072993713</v>
+        <v>0.5730240676343509</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6874032784311453</v>
+        <v>0.6911039785432395</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>344</v>
@@ -3898,19 +3898,19 @@
         <v>364206</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>338831</v>
+        <v>338739</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>390687</v>
+        <v>394488</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5098613414946156</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4743390040414336</v>
+        <v>0.4742101377833111</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5469330459979256</v>
+        <v>0.5522546277032602</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>119125</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>100991</v>
+        <v>99194</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>137180</v>
+        <v>139249</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2865934966161555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2429665608648986</v>
+        <v>0.2386427706377769</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3300309733346983</v>
+        <v>0.3350080649766806</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -3948,19 +3948,19 @@
         <v>71011</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57517</v>
+        <v>56217</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87179</v>
+        <v>87075</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2377613129241504</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1925798871513182</v>
+        <v>0.1882261423045806</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2918949369547048</v>
+        <v>0.2915485622903251</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>187</v>
@@ -3969,19 +3969,19 @@
         <v>190136</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>168217</v>
+        <v>165794</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215081</v>
+        <v>214462</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2661763423671386</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2354914969243942</v>
+        <v>0.2320991114714039</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3010982229303026</v>
+        <v>0.3002312687425439</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>81592</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>66225</v>
+        <v>64792</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>98825</v>
+        <v>98503</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1962964198585636</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1593246076663436</v>
+        <v>0.1558788248114426</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2377553238565843</v>
+        <v>0.236979806885702</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -4019,19 +4019,19 @@
         <v>16689</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9612</v>
+        <v>10079</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27219</v>
+        <v>26954</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05587822711681405</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03218360870158662</v>
+        <v>0.03374692243128158</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09113498222860647</v>
+        <v>0.09024966882171527</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>95</v>
@@ -4040,19 +4040,19 @@
         <v>98281</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>79284</v>
+        <v>80352</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>117195</v>
+        <v>117534</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1375863707921756</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1109922266804552</v>
+        <v>0.1124863089729265</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1640643982157489</v>
+        <v>0.1645386623466227</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>40179</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28887</v>
+        <v>29697</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55062</v>
+        <v>54684</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09666255028109215</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06949660654112522</v>
+        <v>0.0714451558179023</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1324697039970345</v>
+        <v>0.1315588088969316</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -4090,19 +4090,19 @@
         <v>21522</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13292</v>
+        <v>13427</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30888</v>
+        <v>30937</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07205983750204457</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0445054775418485</v>
+        <v>0.04495506267649681</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1034189171914602</v>
+        <v>0.1035842623398852</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -4111,19 +4111,19 @@
         <v>61700</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46441</v>
+        <v>48068</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77366</v>
+        <v>77882</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08637594534607027</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06501432240266654</v>
+        <v>0.06729174736102177</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1083069739263639</v>
+        <v>0.1090297825037126</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>514081</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>475911</v>
+        <v>479828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>550716</v>
+        <v>551213</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3641521593359334</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3371142845822016</v>
+        <v>0.3398893299570261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.39010293131729</v>
+        <v>0.3904553143461196</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>544</v>
@@ -4236,19 +4236,19 @@
         <v>590525</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>561815</v>
+        <v>560379</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>619775</v>
+        <v>620068</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6251628614299949</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5947686118144572</v>
+        <v>0.5932487530049827</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6561281807582702</v>
+        <v>0.6564390388687895</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1016</v>
@@ -4257,19 +4257,19 @@
         <v>1104606</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1047573</v>
+        <v>1055349</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1150268</v>
+        <v>1155312</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4687855635551369</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4445812182021868</v>
+        <v>0.4478814886657503</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.488164269171682</v>
+        <v>0.4903048130148757</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>381813</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>346832</v>
+        <v>347058</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>415948</v>
+        <v>416847</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2704594513734969</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2456806889348093</v>
+        <v>0.2458407595556581</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.294639401818371</v>
+        <v>0.2952759820855298</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>207</v>
@@ -4307,19 +4307,19 @@
         <v>223454</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>200137</v>
+        <v>199757</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>250093</v>
+        <v>250892</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2365613707532471</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.211876422536367</v>
+        <v>0.2114743727515033</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2647622470729861</v>
+        <v>0.2656080321235591</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>574</v>
@@ -4328,19 +4328,19 @@
         <v>605267</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>559115</v>
+        <v>561954</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>649922</v>
+        <v>646472</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.256870462326927</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2372836626266176</v>
+        <v>0.2384888906398585</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2758215681823123</v>
+        <v>0.2743576470964534</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>309154</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>279761</v>
+        <v>281035</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>346553</v>
+        <v>342338</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2189910349618094</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1981706641856288</v>
+        <v>0.1990731264234466</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2454831181571125</v>
+        <v>0.2424969726342665</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -4378,19 +4378,19 @@
         <v>62876</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49139</v>
+        <v>46759</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80502</v>
+        <v>80533</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06656396972697094</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05202111734185822</v>
+        <v>0.04950126900898004</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08522399611052321</v>
+        <v>0.08525647776554707</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>351</v>
@@ -4399,19 +4399,19 @@
         <v>372030</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>337599</v>
+        <v>336656</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>406473</v>
+        <v>410539</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1578864036087388</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1432741479802146</v>
+        <v>0.1428742170070969</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1725039233092108</v>
+        <v>0.1742296031752397</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>206672</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>178607</v>
+        <v>179297</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>233646</v>
+        <v>236930</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1463973543287602</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1265175360372919</v>
+        <v>0.1270062956707945</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.165504624820884</v>
+        <v>0.1678308173107731</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>63</v>
@@ -4449,19 +4449,19 @@
         <v>67739</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>53084</v>
+        <v>53491</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>85782</v>
+        <v>85307</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07171179808978705</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05619760800805674</v>
+        <v>0.05662900800687332</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09081351400490535</v>
+        <v>0.09031077697519171</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>256</v>
@@ -4470,19 +4470,19 @@
         <v>274410</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>244407</v>
+        <v>243515</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>306992</v>
+        <v>308102</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1164575705091973</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1037241448795931</v>
+        <v>0.103345972297002</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1302848906311939</v>
+        <v>0.1307557939418828</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>73924</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60072</v>
+        <v>60531</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90021</v>
+        <v>89424</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3077436694908991</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2500790267778021</v>
+        <v>0.2519873685037862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3747546460597667</v>
+        <v>0.3722712774111473</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -4835,19 +4835,19 @@
         <v>97903</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85769</v>
+        <v>85894</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>109687</v>
+        <v>109735</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5961280242456771</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.522244437762615</v>
+        <v>0.5230011792516767</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6678779652113981</v>
+        <v>0.6681711314540455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -4856,19 +4856,19 @@
         <v>171827</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>150555</v>
+        <v>152905</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>191501</v>
+        <v>192069</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4248474644541502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3722502183463515</v>
+        <v>0.378061716821751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4734920171740934</v>
+        <v>0.4748949575930855</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>63461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49913</v>
+        <v>50622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77766</v>
+        <v>78015</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2641861641106916</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2077873523110215</v>
+        <v>0.2107375720204384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3237367980196694</v>
+        <v>0.3247736451620382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -4906,19 +4906,19 @@
         <v>35926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27172</v>
+        <v>26480</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47430</v>
+        <v>46808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2187501836013422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1654473168028599</v>
+        <v>0.1612357678314141</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2888004145904898</v>
+        <v>0.2850103656660775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>99</v>
@@ -4927,19 +4927,19 @@
         <v>99387</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82081</v>
+        <v>80352</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>117467</v>
+        <v>115739</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2457360448244165</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2029479404505812</v>
+        <v>0.1986725858874415</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2904392412935174</v>
+        <v>0.2861664048014665</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>43969</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33454</v>
+        <v>32200</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57055</v>
+        <v>56521</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1830416459111626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1392665304553567</v>
+        <v>0.1340479160925588</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2375191984463473</v>
+        <v>0.2352933875615904</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -4977,19 +4977,19 @@
         <v>12561</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7074</v>
+        <v>7338</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20485</v>
+        <v>19547</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07648474443963248</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04307306251885634</v>
+        <v>0.04467782899921449</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1247304338214394</v>
+        <v>0.1190193465671693</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -4998,19 +4998,19 @@
         <v>56530</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43160</v>
+        <v>44209</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70819</v>
+        <v>71867</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1397722474985753</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1067150032541832</v>
+        <v>0.1093082824536143</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1751028655119453</v>
+        <v>0.1776929327730885</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>58859</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46171</v>
+        <v>45390</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74178</v>
+        <v>73455</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2450285204872468</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.192209562669731</v>
+        <v>0.1889588657532124</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3087998909297004</v>
+        <v>0.3057925154790113</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -5048,19 +5048,19 @@
         <v>17842</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11081</v>
+        <v>10781</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27216</v>
+        <v>27009</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1086370477133482</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.067474179202673</v>
+        <v>0.06564635280906903</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1657166591800047</v>
+        <v>0.1644563832649154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -5069,19 +5069,19 @@
         <v>76701</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60932</v>
+        <v>61306</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93316</v>
+        <v>93841</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1896442432228581</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1506558905226658</v>
+        <v>0.1515816672358994</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2307254737596</v>
+        <v>0.2320247041400058</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>131582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>112938</v>
+        <v>110262</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>151259</v>
+        <v>153180</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3220379708984867</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2764081366015315</v>
+        <v>0.269857144820376</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3701949715208158</v>
+        <v>0.3748968592390777</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>150</v>
@@ -5194,19 +5194,19 @@
         <v>151402</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>134519</v>
+        <v>135613</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>167850</v>
+        <v>166348</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5550934630029484</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.493192019513519</v>
+        <v>0.4972057174674747</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6153953713476502</v>
+        <v>0.6098896646994333</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>266</v>
@@ -5215,19 +5215,19 @@
         <v>282985</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>256492</v>
+        <v>255744</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>310842</v>
+        <v>308827</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4153331875488144</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3764505561866367</v>
+        <v>0.375352357846521</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4562189715644711</v>
+        <v>0.4532612667108523</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>113831</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95678</v>
+        <v>93972</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133889</v>
+        <v>135455</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2785930437136945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2341657710979888</v>
+        <v>0.2299901357929327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3276832469772316</v>
+        <v>0.3315160384329382</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -5265,19 +5265,19 @@
         <v>58111</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44535</v>
+        <v>45519</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72471</v>
+        <v>72103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2130541954241571</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1632796073798561</v>
+        <v>0.1668872232397373</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2657035784655771</v>
+        <v>0.2643537383473778</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>159</v>
@@ -5286,19 +5286,19 @@
         <v>171942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151863</v>
+        <v>148246</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196445</v>
+        <v>195593</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2523569700860253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.222886899126446</v>
+        <v>0.217578115540505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2883193418160925</v>
+        <v>0.2870697285072764</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>81793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65857</v>
+        <v>64030</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98726</v>
+        <v>99652</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2001810383757381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.161180632630629</v>
+        <v>0.1567087022465989</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2416231041340076</v>
+        <v>0.2438916442994883</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -5336,19 +5336,19 @@
         <v>30570</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20534</v>
+        <v>21379</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42190</v>
+        <v>43086</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1120819404773857</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07528444422940279</v>
+        <v>0.07838243277372017</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1546830567651095</v>
+        <v>0.1579678439617642</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>103</v>
@@ -5357,19 +5357,19 @@
         <v>112363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>94429</v>
+        <v>94578</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>134404</v>
+        <v>133479</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1649137964373197</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1385923392505128</v>
+        <v>0.1388114963653516</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1972631929456997</v>
+        <v>0.1959047155130166</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>81387</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>66313</v>
+        <v>64631</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100401</v>
+        <v>101063</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1991879470120807</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1622959654178682</v>
+        <v>0.1581785247609938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2457239487516003</v>
+        <v>0.2473430098810276</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -5407,19 +5407,19 @@
         <v>32667</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23207</v>
+        <v>24270</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45506</v>
+        <v>44120</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1197704010955087</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08508620059031324</v>
+        <v>0.08898067134619278</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1668408057839894</v>
+        <v>0.1617574511118817</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -5428,19 +5428,19 @@
         <v>114054</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>93715</v>
+        <v>94138</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>134291</v>
+        <v>135829</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1673960459278407</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1375446434764307</v>
+        <v>0.1381657862967756</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1970968193380778</v>
+        <v>0.1993548864272757</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>92352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76116</v>
+        <v>73994</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109057</v>
+        <v>109778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2553588433099008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2104656615077052</v>
+        <v>0.204599175735501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3015500661880302</v>
+        <v>0.3035451320879929</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -5553,19 +5553,19 @@
         <v>105995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>88736</v>
+        <v>88001</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>122330</v>
+        <v>121233</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3932678887959233</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3292333369821881</v>
+        <v>0.3265041545887586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.453876044858234</v>
+        <v>0.4498022886084697</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>189</v>
@@ -5574,19 +5574,19 @@
         <v>198347</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>175690</v>
+        <v>173666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222969</v>
+        <v>221578</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3142484164027791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2783519657369553</v>
+        <v>0.2751460268869241</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3532583815349349</v>
+        <v>0.3510548348416785</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>112592</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>96204</v>
+        <v>94632</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>131781</v>
+        <v>132306</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3113262199589495</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2660103358437486</v>
+        <v>0.2616655932580313</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3643829419346546</v>
+        <v>0.3658352916137469</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>90</v>
@@ -5624,19 +5624,19 @@
         <v>91443</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>75884</v>
+        <v>76208</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>108515</v>
+        <v>106990</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3392754393450222</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2815497252424142</v>
+        <v>0.2827507177048031</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4026161998013988</v>
+        <v>0.3969595862784298</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>190</v>
@@ -5645,19 +5645,19 @@
         <v>204035</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>178572</v>
+        <v>181376</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>231534</v>
+        <v>226431</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3232610251932576</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2829183475455774</v>
+        <v>0.2873607923056098</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3668276523619639</v>
+        <v>0.3587435778731343</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>84266</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68244</v>
+        <v>69924</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99867</v>
+        <v>103165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2330009486060376</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1887009533426213</v>
+        <v>0.1933438699293819</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2761387858376955</v>
+        <v>0.2852581344300644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -5695,19 +5695,19 @@
         <v>52216</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38707</v>
+        <v>40051</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66698</v>
+        <v>65831</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1937358615966222</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1436115825369454</v>
+        <v>0.1485985347195647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2474647877107403</v>
+        <v>0.2442489679957517</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -5716,19 +5716,19 @@
         <v>136482</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>116183</v>
+        <v>116353</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>159920</v>
+        <v>158278</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.216234070093536</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1840724923016059</v>
+        <v>0.1843421322147895</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.25336733110688</v>
+        <v>0.2507663403105498</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>72444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58361</v>
+        <v>57753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>91078</v>
+        <v>89243</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2003139881251121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1613725969818697</v>
+        <v>0.1596904708658687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2518382628581169</v>
+        <v>0.246764571513112</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -5766,19 +5766,19 @@
         <v>19870</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12258</v>
+        <v>12960</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30889</v>
+        <v>30077</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07372081026243225</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04547924106154232</v>
+        <v>0.04808407290222994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1146071410337124</v>
+        <v>0.1115944038630949</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>82</v>
@@ -5787,19 +5787,19 @@
         <v>92314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74224</v>
+        <v>74416</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110010</v>
+        <v>112165</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1462564883104273</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1175957443210531</v>
+        <v>0.117899879796176</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1742936973185039</v>
+        <v>0.1777075456446708</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>163910</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>144323</v>
+        <v>143457</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>183126</v>
+        <v>182567</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4127070378043298</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3633884580617425</v>
+        <v>0.3612093019953088</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4610915297633216</v>
+        <v>0.4596831765207434</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -5912,19 +5912,19 @@
         <v>202327</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>184278</v>
+        <v>182030</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>219832</v>
+        <v>218362</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6272331721032572</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5712800673318226</v>
+        <v>0.5643105367939435</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6815022883865706</v>
+        <v>0.676945403275294</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>352</v>
@@ -5933,19 +5933,19 @@
         <v>366237</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>340086</v>
+        <v>337031</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>393080</v>
+        <v>393002</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5088540912938133</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4725196597388957</v>
+        <v>0.4682749645039692</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5461512044354673</v>
+        <v>0.5460428252885264</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>110578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94097</v>
+        <v>92922</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>128240</v>
+        <v>127620</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2784232554953979</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2369258924401749</v>
+        <v>0.2339681869641162</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3228946341407241</v>
+        <v>0.3213332397379389</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -5983,19 +5983,19 @@
         <v>72519</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56922</v>
+        <v>57959</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87881</v>
+        <v>88518</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2248175790022944</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1764639385038712</v>
+        <v>0.1796793776680051</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2724412127417493</v>
+        <v>0.2744138517092032</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>177</v>
@@ -6004,19 +6004,19 @@
         <v>183097</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>161705</v>
+        <v>159055</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>207629</v>
+        <v>208643</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2543980808379336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2246753494112008</v>
+        <v>0.2209925619796176</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2884823900311008</v>
+        <v>0.2898913133113386</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>88764</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>72419</v>
+        <v>73612</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106105</v>
+        <v>106466</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2234989358816236</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1823436808909563</v>
+        <v>0.1853480193713536</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2671595133339862</v>
+        <v>0.2680701739388875</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -6054,19 +6054,19 @@
         <v>30162</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19748</v>
+        <v>19920</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>43355</v>
+        <v>42624</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09350462251259463</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06122140274604142</v>
+        <v>0.06175302775540121</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1344040685713376</v>
+        <v>0.1321398541021821</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>115</v>
@@ -6075,19 +6075,19 @@
         <v>118926</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>99994</v>
+        <v>99316</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>140285</v>
+        <v>140145</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1652376417895723</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1389334021749863</v>
+        <v>0.1379915963763744</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1949139016020458</v>
+        <v>0.1947191705380582</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>33906</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23396</v>
+        <v>24051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46318</v>
+        <v>47428</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08537077081864873</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05890803895375465</v>
+        <v>0.06055826093824101</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1166238488414549</v>
+        <v>0.1194191257645106</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -6125,19 +6125,19 @@
         <v>17562</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11059</v>
+        <v>11240</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26947</v>
+        <v>28499</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05444462638185368</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03428467499230366</v>
+        <v>0.03484659787823905</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08353970045592121</v>
+        <v>0.08834865949749941</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -6146,19 +6146,19 @@
         <v>51468</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38543</v>
+        <v>38773</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65390</v>
+        <v>65646</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0715101860786808</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05355214318257768</v>
+        <v>0.05387110997220211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09085324203697961</v>
+        <v>0.09120961095440569</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>461768</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>425605</v>
+        <v>421511</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>493993</v>
+        <v>497070</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3280491699384839</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3023587797764483</v>
+        <v>0.2994503380549747</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3509427912243903</v>
+        <v>0.3531290561259915</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>550</v>
@@ -6271,19 +6271,19 @@
         <v>557627</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>526969</v>
+        <v>528069</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>589085</v>
+        <v>589885</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5418713440679994</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5120789175384541</v>
+        <v>0.5131485856892533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.572439825859707</v>
+        <v>0.5732177330097514</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>978</v>
@@ -6292,19 +6292,19 @@
         <v>1019395</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>972385</v>
+        <v>969589</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1071497</v>
+        <v>1073501</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4183516549635691</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3990592083922574</v>
+        <v>0.3979117770715121</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4397339290434389</v>
+        <v>0.4405561556941152</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>400462</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>365826</v>
+        <v>366101</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>433741</v>
+        <v>438152</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2844965938907961</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2598902176683243</v>
+        <v>0.2600860020985424</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3081385958088855</v>
+        <v>0.3112720314886462</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>251</v>
@@ -6342,19 +6342,19 @@
         <v>257999</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>230893</v>
+        <v>228877</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>285137</v>
+        <v>284798</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2507089373846423</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2243693177419341</v>
+        <v>0.2224098074373133</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2770798787650016</v>
+        <v>0.2767512484896576</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>625</v>
@@ -6363,19 +6363,19 @@
         <v>658461</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>614830</v>
+        <v>615854</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>704317</v>
+        <v>705037</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2702272162731521</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2523212541059036</v>
+        <v>0.2527418150232804</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2890461341988744</v>
+        <v>0.2893417623491794</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>298791</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>269957</v>
+        <v>268475</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>330086</v>
+        <v>331628</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2122675891614385</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1917830746696447</v>
+        <v>0.1907298629123956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2344995542588111</v>
+        <v>0.2355955519215053</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -6413,19 +6413,19 @@
         <v>125510</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>106314</v>
+        <v>104438</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149973</v>
+        <v>148450</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1219636098358077</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1033097166779703</v>
+        <v>0.1014872388911485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1457350893328331</v>
+        <v>0.1442552706615095</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>403</v>
@@ -6434,19 +6434,19 @@
         <v>424301</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>382641</v>
+        <v>390543</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>457713</v>
+        <v>463859</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1741299461692811</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.157032815505069</v>
+        <v>0.1602758261330553</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1878420000499253</v>
+        <v>0.1903638833829025</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>246596</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>218464</v>
+        <v>216462</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>278133</v>
+        <v>277678</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1751866470092815</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1552015754278629</v>
+        <v>0.1537789436786778</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1975911754489004</v>
+        <v>0.1972680240237573</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>86</v>
@@ -6484,19 +6484,19 @@
         <v>87941</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>72120</v>
+        <v>70960</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>105521</v>
+        <v>105881</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08545610871155065</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07008185448160038</v>
+        <v>0.06895512493256149</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.102539187730745</v>
+        <v>0.1028896516646762</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>308</v>
@@ -6505,19 +6505,19 @@
         <v>334537</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>298960</v>
+        <v>298477</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>371324</v>
+        <v>369872</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1372911825939977</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1226908925251082</v>
+        <v>0.1224925276643453</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1523883321317551</v>
+        <v>0.1517925748294237</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>44186</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32471</v>
+        <v>31387</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58380</v>
+        <v>59274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2289243840225821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1682290414270487</v>
+        <v>0.1626135244088131</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3024629241456678</v>
+        <v>0.307096730457199</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>110</v>
@@ -6870,19 +6870,19 @@
         <v>75031</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63801</v>
+        <v>65351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86049</v>
+        <v>85648</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5492531869184157</v>
+        <v>0.5492531869184155</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4670454615264217</v>
+        <v>0.4783876865834257</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6299045796541005</v>
+        <v>0.6269705960167542</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -6891,19 +6891,19 @@
         <v>119217</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102783</v>
+        <v>99875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139827</v>
+        <v>137910</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3616798534505982</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3118237376749284</v>
+        <v>0.3030006049105614</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4242079569111983</v>
+        <v>0.4183924314317481</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>64639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51226</v>
+        <v>50602</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80824</v>
+        <v>78754</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3348913197489932</v>
+        <v>0.3348913197489933</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2654022544835792</v>
+        <v>0.2621657754392648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4187452350658543</v>
+        <v>0.4080197991049782</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -6941,19 +6941,19 @@
         <v>32879</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25065</v>
+        <v>24468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41920</v>
+        <v>41903</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2406860147928054</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1834859311532211</v>
+        <v>0.1791149485627912</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3068712917241262</v>
+        <v>0.3067452603299386</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>109</v>
@@ -6962,19 +6962,19 @@
         <v>97518</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81782</v>
+        <v>81091</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>114994</v>
+        <v>116676</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2958493436013317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2481112553665209</v>
+        <v>0.2460129368513042</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.348870536122455</v>
+        <v>0.3539726010739962</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>52800</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39368</v>
+        <v>40121</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>70456</v>
+        <v>68039</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.273557785421788</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2039637566982988</v>
+        <v>0.2078645572507363</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3650306849387598</v>
+        <v>0.3525075372309007</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -7012,19 +7012,19 @@
         <v>16445</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10568</v>
+        <v>9840</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25335</v>
+        <v>24230</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.12038043960688</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07736206635461472</v>
+        <v>0.07202948667001173</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1854636327192515</v>
+        <v>0.1773745788351021</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -7033,19 +7033,19 @@
         <v>69245</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55060</v>
+        <v>54140</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87030</v>
+        <v>86987</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2100757311526677</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1670418102825675</v>
+        <v>0.1642488415328035</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.264032271103472</v>
+        <v>0.2639008273856178</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>31389</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20207</v>
+        <v>20785</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45611</v>
+        <v>47740</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1626265108066365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1046922727388507</v>
+        <v>0.1076853609302945</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2363109798583499</v>
+        <v>0.2473402590455269</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -7083,19 +7083,19 @@
         <v>12251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6028</v>
+        <v>6095</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21589</v>
+        <v>20319</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0896803586818988</v>
+        <v>0.08968035868189876</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04412668916579062</v>
+        <v>0.04461553839243266</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1580369838299109</v>
+        <v>0.1487400706804179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -7104,19 +7104,19 @@
         <v>43640</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30799</v>
+        <v>31007</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62429</v>
+        <v>61266</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1323950717954024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09343686281346086</v>
+        <v>0.09406996683238236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1893975039029448</v>
+        <v>0.1858700062168871</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>118265</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>100134</v>
+        <v>98749</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>139694</v>
+        <v>136927</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.357903529369994</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3030343665306433</v>
+        <v>0.2988413393907111</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4227540000099885</v>
+        <v>0.4143798403881904</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>150</v>
@@ -7229,19 +7229,19 @@
         <v>110886</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>98244</v>
+        <v>98420</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>123427</v>
+        <v>124041</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.510322192618061</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4521407177855055</v>
+        <v>0.4529508522886723</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5680374100829976</v>
+        <v>0.5708646064083525</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>249</v>
@@ -7250,19 +7250,19 @@
         <v>229151</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>206574</v>
+        <v>205409</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>253560</v>
+        <v>252372</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4183692347891548</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3771499130820564</v>
+        <v>0.375023157801878</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4629339249142742</v>
+        <v>0.4607643951017684</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>93740</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77165</v>
+        <v>76664</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112377</v>
+        <v>112767</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2836826242062523</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2335237458245374</v>
+        <v>0.2320064860236363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.340085234409694</v>
+        <v>0.3412641057156721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -7300,19 +7300,19 @@
         <v>66048</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54375</v>
+        <v>54401</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77213</v>
+        <v>78275</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3039659349246476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2502467604455536</v>
+        <v>0.2503664963215682</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3553489726647724</v>
+        <v>0.3602372085253986</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>172</v>
@@ -7321,19 +7321,19 @@
         <v>159787</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>141202</v>
+        <v>139773</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>182998</v>
+        <v>181626</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2917291761486985</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2577969728561447</v>
+        <v>0.2551896335531995</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3341053639940519</v>
+        <v>0.3316016353302358</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>76637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60591</v>
+        <v>61513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94070</v>
+        <v>94996</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2319267923957775</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.183366820461858</v>
+        <v>0.186157084494268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2846839706231619</v>
+        <v>0.2874845611574859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -7371,19 +7371,19 @@
         <v>23072</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15143</v>
+        <v>15652</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31988</v>
+        <v>32661</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1061800912664369</v>
+        <v>0.1061800912664368</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06969086172346786</v>
+        <v>0.0720346361025713</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1472164529003247</v>
+        <v>0.1503129860376081</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>93</v>
@@ -7392,19 +7392,19 @@
         <v>99709</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>81576</v>
+        <v>79974</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>119148</v>
+        <v>119761</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1820420681376778</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1489366023158675</v>
+        <v>0.14601092386393</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2175326017797254</v>
+        <v>0.2186514962903842</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>41796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29502</v>
+        <v>30554</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56864</v>
+        <v>59046</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1264870540279764</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08928187863183272</v>
+        <v>0.09246500454137638</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.172086146961357</v>
+        <v>0.1786897275385955</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -7442,19 +7442,19 @@
         <v>17281</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11159</v>
+        <v>9957</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26237</v>
+        <v>24808</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07953178119085444</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0513550096856167</v>
+        <v>0.04582597228139285</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1207478979945071</v>
+        <v>0.1141703632531384</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>55</v>
@@ -7463,19 +7463,19 @@
         <v>59077</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44324</v>
+        <v>44966</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76613</v>
+        <v>76162</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1078595209244688</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08092364108697797</v>
+        <v>0.08209618635410924</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1398753924978895</v>
+        <v>0.139051660730386</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>65280</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51359</v>
+        <v>51032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80248</v>
+        <v>81001</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3251815098151462</v>
+        <v>0.3251815098151463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2558387131393933</v>
+        <v>0.2542063492804907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3997428396834599</v>
+        <v>0.403495030525937</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>106</v>
@@ -7588,19 +7588,19 @@
         <v>83515</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72598</v>
+        <v>72599</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95196</v>
+        <v>96345</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5473407789558244</v>
+        <v>0.5473407789558243</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4757964568335208</v>
+        <v>0.4757997876739009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6238936854518461</v>
+        <v>0.6314281452968865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>161</v>
@@ -7609,19 +7609,19 @@
         <v>148795</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>130111</v>
+        <v>130452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>167214</v>
+        <v>168502</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4211186692825371</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3682391476347983</v>
+        <v>0.3692058006469137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4732488252104026</v>
+        <v>0.476894905027602</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>61157</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46343</v>
+        <v>47271</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>76204</v>
+        <v>77263</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3046432224977781</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2308506088700289</v>
+        <v>0.2354749639004663</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3795995936057144</v>
+        <v>0.3848755812153272</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>47</v>
@@ -7659,19 +7659,19 @@
         <v>39963</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30900</v>
+        <v>30445</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51107</v>
+        <v>50766</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2619107797318652</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2025124650828279</v>
+        <v>0.19953031548781</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.334948336147619</v>
+        <v>0.3327089954576185</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>95</v>
@@ -7680,19 +7680,19 @@
         <v>101120</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>84388</v>
+        <v>85108</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>122146</v>
+        <v>121290</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2861896635176731</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2388336835682791</v>
+        <v>0.2408717067670279</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3456968277402528</v>
+        <v>0.3432738951426641</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>38096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26359</v>
+        <v>25414</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53283</v>
+        <v>52936</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1897702187350553</v>
+        <v>0.1897702187350554</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1313045708826596</v>
+        <v>0.1265947372063647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2654194478699365</v>
+        <v>0.2636931568019821</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -7730,19 +7730,19 @@
         <v>17438</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11349</v>
+        <v>11158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25093</v>
+        <v>25483</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1142830577118324</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07437929512268371</v>
+        <v>0.07312957626255356</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.164452882433387</v>
+        <v>0.1670137384646121</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -7751,19 +7751,19 @@
         <v>55534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41442</v>
+        <v>41937</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71839</v>
+        <v>72680</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1571718768660079</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1172885703781165</v>
+        <v>0.1186895050988619</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2033195603069894</v>
+        <v>0.2057000456597944</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>36216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23634</v>
+        <v>23123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52975</v>
+        <v>52749</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1804050489520202</v>
+        <v>0.1804050489520203</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1177300920784107</v>
+        <v>0.1151830515862639</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.263886098101287</v>
+        <v>0.2627608820570779</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -7801,19 +7801,19 @@
         <v>11667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6581</v>
+        <v>6916</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18290</v>
+        <v>19070</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07646538360047794</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04312795445986321</v>
+        <v>0.04532781524480668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1198666580997187</v>
+        <v>0.1249789634707722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -7822,19 +7822,19 @@
         <v>47883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33275</v>
+        <v>32954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65323</v>
+        <v>66175</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1355197903337819</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09417444261427052</v>
+        <v>0.09326524972370635</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1848772318014325</v>
+        <v>0.1872872570726933</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>139224</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121913</v>
+        <v>121550</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>157469</v>
+        <v>155010</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5686876126401604</v>
+        <v>0.5686876126401603</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4979771466191649</v>
+        <v>0.4964935122976813</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6432108134699484</v>
+        <v>0.6331650907664457</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>189</v>
@@ -7947,19 +7947,19 @@
         <v>139445</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>126402</v>
+        <v>127460</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>150428</v>
+        <v>151236</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6864787662137106</v>
+        <v>0.6864787662137104</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6222690864002454</v>
+        <v>0.6274769037395075</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.740545454011277</v>
+        <v>0.7445235895630096</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>315</v>
@@ -7968,19 +7968,19 @@
         <v>278670</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>257152</v>
+        <v>258704</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>299709</v>
+        <v>298222</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6221024067502245</v>
+        <v>0.6221024067502247</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5740645996655215</v>
+        <v>0.5775290578119792</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6690685999062275</v>
+        <v>0.6657493465977184</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>55629</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41624</v>
+        <v>43056</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69791</v>
+        <v>71222</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2272252669606811</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1700219065275031</v>
+        <v>0.1758682485799468</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2850741416357531</v>
+        <v>0.2909185897262064</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -8018,19 +8018,19 @@
         <v>36920</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26633</v>
+        <v>26903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47619</v>
+        <v>47285</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1817570193282279</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1311135625699793</v>
+        <v>0.132441755360353</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2344266321307488</v>
+        <v>0.2327797253052808</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -8039,19 +8039,19 @@
         <v>92549</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76248</v>
+        <v>77070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>113827</v>
+        <v>110735</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2066067653826623</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1702158787791078</v>
+        <v>0.1720505267225285</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2541080274890355</v>
+        <v>0.2472040657766545</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>30359</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21715</v>
+        <v>20826</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43220</v>
+        <v>42658</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1240058529425392</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08869870092768788</v>
+        <v>0.08506691956363253</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1765388722534101</v>
+        <v>0.1742450768725982</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -8089,19 +8089,19 @@
         <v>9717</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5784</v>
+        <v>5522</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16903</v>
+        <v>15935</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04783806377032235</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02847527258153903</v>
+        <v>0.02718269333776513</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08321341600051242</v>
+        <v>0.07844637570995872</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>40</v>
@@ -8110,19 +8110,19 @@
         <v>40076</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>28344</v>
+        <v>27541</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>53198</v>
+        <v>52469</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08946601991583972</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06327523049089048</v>
+        <v>0.0614826122324933</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1187597667757314</v>
+        <v>0.1171320065294695</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>19605</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11897</v>
+        <v>12420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30006</v>
+        <v>30071</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08008126745661934</v>
+        <v>0.08008126745661935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04859545406151634</v>
+        <v>0.05073203661852191</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.122564847260033</v>
+        <v>0.1228303858823736</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -8160,19 +8160,19 @@
         <v>17048</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10968</v>
+        <v>10816</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26832</v>
+        <v>27243</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0839261506877392</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05399233735298201</v>
+        <v>0.05324535442861965</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1320933351543788</v>
+        <v>0.1341143119484836</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -8181,19 +8181,19 @@
         <v>36653</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26697</v>
+        <v>26755</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50346</v>
+        <v>50684</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08182480795127345</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05959820842697981</v>
+        <v>0.05972796540845293</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.112392130132875</v>
+        <v>0.1131471663499782</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>366955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>329381</v>
+        <v>331253</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>398929</v>
+        <v>400142</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3786874131400884</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3399116819955249</v>
+        <v>0.3418443690421307</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4116833472355822</v>
+        <v>0.4129355090302667</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>555</v>
@@ -8306,19 +8306,19 @@
         <v>408878</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>385455</v>
+        <v>384291</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>430465</v>
+        <v>431814</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5762031214644295</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5431946779874173</v>
+        <v>0.5415553252297849</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6066249665496726</v>
+        <v>0.6085253379866394</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>871</v>
@@ -8327,19 +8327,19 @@
         <v>775832</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>732995</v>
+        <v>732231</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>815021</v>
+        <v>820670</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4621834312267665</v>
+        <v>0.4621834312267666</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4366643830377809</v>
+        <v>0.4362091690485825</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4855292572473179</v>
+        <v>0.4888946550426477</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>275164</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>244521</v>
+        <v>244999</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>306489</v>
+        <v>307006</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2839613141751517</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2523390625604869</v>
+        <v>0.2528325392749728</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3162884686217674</v>
+        <v>0.3168219498496377</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>235</v>
@@ -8377,19 +8377,19 @@
         <v>175811</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>156310</v>
+        <v>156266</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>198440</v>
+        <v>198163</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2477576490988476</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2202763353018843</v>
+        <v>0.220214687279628</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2796482515741796</v>
+        <v>0.2792568257054888</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>474</v>
@@ -8398,19 +8398,19 @@
         <v>450974</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>417714</v>
+        <v>416975</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>491099</v>
+        <v>490434</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2686569016822917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.248843333016173</v>
+        <v>0.2484028540039812</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2925602624642091</v>
+        <v>0.2921645692318418</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>197893</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>171275</v>
+        <v>169386</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>228522</v>
+        <v>231272</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2042199097624377</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1767505922731832</v>
+        <v>0.1748012558679731</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2358283704019055</v>
+        <v>0.2386664609337186</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -8448,19 +8448,19 @@
         <v>66671</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>53288</v>
+        <v>52599</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>82486</v>
+        <v>81161</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09395517388382986</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07509534743270804</v>
+        <v>0.07412414272586798</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1162423343843228</v>
+        <v>0.1143739773231745</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>251</v>
@@ -8469,19 +8469,19 @@
         <v>264564</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>234648</v>
+        <v>235635</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>297093</v>
+        <v>294064</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1576075848018085</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1397857333718578</v>
+        <v>0.1403739078071204</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1769861162857471</v>
+        <v>0.1751815673573727</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>129007</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>104584</v>
+        <v>105784</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>157391</v>
+        <v>157456</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1331313629223223</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1079282879045454</v>
+        <v>0.1091659088118699</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1624231214359346</v>
+        <v>0.1624899741027089</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>69</v>
@@ -8519,19 +8519,19 @@
         <v>58247</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>46001</v>
+        <v>45771</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>74853</v>
+        <v>74339</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.08208405555289301</v>
+        <v>0.082084055552893</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06482541507762252</v>
+        <v>0.06450189760423608</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1054853499958753</v>
+        <v>0.1047608260071074</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>167</v>
@@ -8540,19 +8540,19 @@
         <v>187254</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>157156</v>
+        <v>157779</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>215381</v>
+        <v>219235</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1115520822891331</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0936217949571691</v>
+        <v>0.09399303629981592</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1283078429473888</v>
+        <v>0.130604259821749</v>
       </c>
     </row>
     <row r="28">
